--- a/Översikt NÄSSJÖ.xlsx
+++ b/Översikt NÄSSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43339</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44027</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44956</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43726</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44179</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45043</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43987</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44209</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>44498</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44537</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44839</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44886</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44928</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45044</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43339</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43340</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43365</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43378</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43390</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43391</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43411</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43414</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43419</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43420</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43420</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43430</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43443</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43450</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43454</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43484</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43486</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43487</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43489</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43490</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43494</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43515</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43515</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43515</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43521</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43521</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43523</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43525</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43528</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43557</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43560</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43562</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43582</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43590</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43599</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43599</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43601</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43620</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43620</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43621</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43633</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43633</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43635</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43636</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43670</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43686</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>43705</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>43711</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>43714</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>43725</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43734</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43734</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43736</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43736</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43740</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43740</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43742</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43748</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43753</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43756</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43760</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43769</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43770</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43773</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43776</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43798</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43798</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43798</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43801</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>43814</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>43816</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>43818</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43833</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43844</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43845</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43845</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43850</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43854</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43858</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43861</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>43861</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43861</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>43866</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>43866</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>43873</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43873</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>43875</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>43875</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43888</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43895</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43900</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43901</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>43913</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>43923</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43943</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43945</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43945</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43957</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>43963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43970</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43970</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43975</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43976</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43991</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43997</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43997</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44011</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44011</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44013</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44025</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44042</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44044</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44046</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44047</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44056</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44056</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44060</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44066</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>44066</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44066</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44078</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44085</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44089</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44091</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44098</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44099</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44099</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44102</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44102</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44102</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44102</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44102</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44102</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44105</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>44105</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44112</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44116</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44119</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44121</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44128</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44132</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44141</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44144</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>44151</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44151</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44155</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>44162</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>44162</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44162</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44162</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44172</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44182</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44200</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44215</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44228</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44231</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44234</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44245</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44246</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44246</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44260</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44264</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44264</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44264</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>44265</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>44277</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44294</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44313</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44315</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>44330</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>44342</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44344</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44344</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44348</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44356</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>44364</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>44369</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44379</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44380</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44383</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44386</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44418</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44427</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44428</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44445</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44452</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44454</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44456</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44459</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44459</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44459</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44459</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44459</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44459</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44459</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44460</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44460</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44462</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44466</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44469</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44481</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44482</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44483</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44502</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44546</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44564</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44568</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44579</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44579</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44585</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44588</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44594</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44594</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44600</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44603</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44608</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44613</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44617</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44650</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44664</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44664</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44665</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44670</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44685</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44685</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>44691</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>44701</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>44701</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44701</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>44721</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>44804</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44804</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44804</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44809</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44812</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44812</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44816</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44818</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44818</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44826</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44826</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44826</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44827</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44827</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44837</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44838</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44858</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44869</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>44869</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44874</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44886</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44897</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44898</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44901</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44902</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44902</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44902</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44928</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>44928</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>44928</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44928</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44939</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44945</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44945</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44946</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44946</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44946</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44946</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44950</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44952</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44956</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44956</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44956</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44965</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>44970</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
         <v>44972</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26026,7 +26026,7 @@
         <v>44972</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         <v>44974</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>44974</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44988</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26311,7 +26311,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>45013</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45013</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>45020</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>45020</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         <v>45021</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45022</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>45031</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>45041</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>45041</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45041</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45043</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45046</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45046</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45048</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45052</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45054</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45055</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45071</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45077</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45079</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45083</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45099</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45106</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>45109</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>45109</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>45111</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45111</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>45118</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45128</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45132</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45132</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45132</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45132</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45132</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45145</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>45148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>45154</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>45161</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>45161</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>45162</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>45163</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>45163</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>45167</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>

--- a/Översikt NÄSSJÖ.xlsx
+++ b/Översikt NÄSSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43339</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44027</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44956</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43726</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44179</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45043</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43987</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44209</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>44498</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44537</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44839</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44886</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44928</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45044</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43339</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43340</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43365</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43378</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43390</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43391</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43411</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43414</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43419</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43420</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43420</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43430</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43443</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43450</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43454</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43484</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43486</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43487</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43489</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43490</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43494</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43515</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43515</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43515</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43521</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43521</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43523</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43525</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43528</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43557</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43560</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43562</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43582</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43590</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43599</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43599</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43601</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43620</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43620</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43621</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43633</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43633</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43635</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43636</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43670</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43686</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>43705</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>43711</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>43714</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>43725</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43734</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43734</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43736</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43736</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43740</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43740</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43742</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43748</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43753</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43756</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43760</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43769</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43770</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43773</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43776</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43798</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43798</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43798</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43801</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>43814</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>43816</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>43818</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43833</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43844</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43845</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43845</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43850</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43854</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43858</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43861</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>43861</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43861</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>43866</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>43866</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>43873</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43873</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>43875</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>43875</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43888</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43895</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43900</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43901</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>43913</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>43923</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43943</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43945</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43945</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43957</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>43963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43970</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43970</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43975</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43976</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43991</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43997</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43997</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44011</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44011</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44013</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44025</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44042</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44044</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44046</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44047</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44056</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44056</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44060</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44066</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>44066</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44066</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44078</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44085</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44089</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44091</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44098</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44099</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44099</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44102</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44102</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44102</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44102</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44102</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44102</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44105</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>44105</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44112</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44116</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44119</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44121</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44128</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44132</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44141</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44144</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>44151</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44151</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44155</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>44162</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>44162</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44162</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44162</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44172</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44182</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44200</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44215</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44228</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44231</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44234</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44245</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44246</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44246</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44260</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44264</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44264</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44264</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>44265</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>44277</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44294</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44313</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44315</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>44330</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>44342</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44344</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44344</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44348</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44356</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>44364</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>44369</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44379</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44380</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44383</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44386</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44418</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44427</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44428</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44445</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44452</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44454</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44456</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44459</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44459</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44459</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44459</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44459</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44459</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44459</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44460</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44460</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44462</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44466</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44469</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44481</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44482</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44483</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44502</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44546</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44564</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44568</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44579</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44579</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44585</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44588</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44594</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44594</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44600</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44603</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44608</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44613</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44617</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44650</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44664</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44664</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44665</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44670</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44685</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44685</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>44691</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>44701</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>44701</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44701</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>44721</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>44804</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44804</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44804</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44809</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44812</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44812</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44816</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44818</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44818</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44826</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44826</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44826</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44827</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44827</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44837</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44838</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44858</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44869</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>44869</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44874</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44886</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44897</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44898</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44901</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44902</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44902</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44902</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44928</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>44928</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>44928</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44928</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44939</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44945</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44945</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44946</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44946</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44946</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44946</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44950</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44952</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44956</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44956</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44956</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44965</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>44970</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
         <v>44972</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26026,7 +26026,7 @@
         <v>44972</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         <v>44974</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>44974</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44988</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26311,7 +26311,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>45013</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45013</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>45020</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>45020</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         <v>45021</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45022</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>45031</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>45041</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>45041</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45041</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45043</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45046</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45046</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45048</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45052</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45054</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45055</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45071</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45077</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45079</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45083</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45099</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45106</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>45109</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>45109</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>45111</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45111</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>45118</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45128</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45132</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45132</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45132</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45132</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45132</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45145</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>45148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>45154</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>45161</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>45161</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>45162</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>45163</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>45163</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>45167</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>

--- a/Översikt NÄSSJÖ.xlsx
+++ b/Översikt NÄSSJÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y497"/>
+  <dimension ref="A1:Y498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43339</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44027</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44956</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43726</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44179</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45043</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43987</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44209</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>44498</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44537</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44839</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44886</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44928</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45044</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43339</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43340</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43365</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43378</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43390</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43391</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43411</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43414</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43419</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43420</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43420</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43430</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43443</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43450</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43454</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43484</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43486</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43487</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43489</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43490</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43494</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43515</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43515</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43515</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43521</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43521</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43523</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43525</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43528</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43557</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43560</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43562</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43582</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43590</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43599</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43599</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43601</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43620</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43620</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43621</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43633</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43633</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43635</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43636</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43670</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43686</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>43705</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>43711</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>43714</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>43725</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43734</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43734</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43736</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43736</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43740</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43740</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43742</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43748</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43753</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43756</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43760</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43769</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43770</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43773</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43776</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43798</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43798</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43798</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43801</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>43814</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>43816</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>43818</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43833</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43844</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43845</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43845</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43850</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43854</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43858</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43861</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>43861</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43861</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>43866</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>43866</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>43873</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43873</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>43875</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>43875</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43888</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43895</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43900</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43901</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>43913</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>43923</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43943</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43945</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43945</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43957</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>43963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43970</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43970</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43975</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43976</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43991</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43997</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43997</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44011</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44011</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44013</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44025</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44042</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44044</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44046</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44047</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44056</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44056</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44060</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44066</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>44066</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44066</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44078</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44085</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44089</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44091</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44098</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44099</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44099</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44102</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44102</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44102</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44102</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44102</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44102</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44105</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>44105</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44112</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44116</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44119</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44121</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44128</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44132</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44141</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44144</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>44151</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44151</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44155</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>44162</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>44162</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44162</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44162</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44172</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44182</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44200</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44215</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44228</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44231</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44234</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44245</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44246</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44246</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44260</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44264</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44264</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44264</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>44265</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>44277</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44294</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44313</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44315</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>44330</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>44342</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44344</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44344</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44348</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44356</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>44364</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>44369</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44379</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44380</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44383</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44386</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44418</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44427</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44428</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44445</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44452</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44454</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44456</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44459</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44459</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44459</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44459</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44459</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44459</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44459</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44460</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44460</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44462</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44466</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44469</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44481</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44482</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44483</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44502</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44546</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44564</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44568</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44579</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44579</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44585</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44588</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44594</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44594</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44600</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44603</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44608</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44613</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44617</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44650</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44664</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44664</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44665</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44670</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44685</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44685</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>44691</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>44701</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>44701</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44701</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>44721</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>44804</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44804</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44804</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44809</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44812</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44812</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44816</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44818</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44818</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44826</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44826</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44826</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44827</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44827</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44837</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44838</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44858</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44869</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>44869</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44874</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44886</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44897</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44898</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44901</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44902</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44902</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44902</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44928</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>44928</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>44928</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44928</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44939</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44945</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44945</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44946</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44946</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44946</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44946</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44950</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44952</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44956</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44956</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44956</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44965</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>44970</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
         <v>44972</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26026,7 +26026,7 @@
         <v>44972</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         <v>44974</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>44974</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44988</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26311,7 +26311,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>45013</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45013</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>45020</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>45020</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         <v>45021</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45022</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>45031</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>45041</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>45041</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45041</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45043</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45046</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45046</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45048</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45052</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45054</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45055</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45071</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45077</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45079</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45083</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45099</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45106</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>45109</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>45109</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>45111</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45111</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>45118</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45128</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45132</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45132</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45132</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45132</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45132</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45145</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>45148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>45154</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>45161</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>45161</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>45162</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>45163</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>45163</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29550,7 +29550,7 @@
       </c>
       <c r="R496" s="2" t="inlineStr"/>
     </row>
-    <row r="497">
+    <row r="497" ht="15" customHeight="1">
       <c r="A497" t="inlineStr">
         <is>
           <t>A 39802-2023</t>
@@ -29560,7 +29560,7 @@
         <v>45167</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29606,6 +29606,63 @@
         <v>0</v>
       </c>
       <c r="R497" s="2" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>A 41511-2023</t>
+        </is>
+      </c>
+      <c r="B498" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C498" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>NÄSSJÖ</t>
+        </is>
+      </c>
+      <c r="G498" t="n">
+        <v>1</v>
+      </c>
+      <c r="H498" t="n">
+        <v>0</v>
+      </c>
+      <c r="I498" t="n">
+        <v>0</v>
+      </c>
+      <c r="J498" t="n">
+        <v>0</v>
+      </c>
+      <c r="K498" t="n">
+        <v>0</v>
+      </c>
+      <c r="L498" t="n">
+        <v>0</v>
+      </c>
+      <c r="M498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N498" t="n">
+        <v>0</v>
+      </c>
+      <c r="O498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R498" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NÄSSJÖ.xlsx
+++ b/Översikt NÄSSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43339</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44027</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44956</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43726</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44179</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45043</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43987</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44209</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>44498</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44537</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44839</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44886</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44928</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45044</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43339</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43340</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43365</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43378</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43390</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43391</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43411</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43414</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43419</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43420</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43420</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43430</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43443</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43450</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43454</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43484</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43486</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43487</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43489</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43490</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43494</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43515</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43515</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43515</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43521</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43521</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43523</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43525</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43528</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43557</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43560</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43562</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43582</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43590</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43599</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43599</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43601</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43620</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43620</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43621</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43633</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43633</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43635</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43636</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43670</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43686</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>43705</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>43711</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>43714</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>43725</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43734</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43734</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43736</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43736</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43740</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43740</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43742</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43748</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43753</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43756</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43760</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43769</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43770</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43773</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43776</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43798</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43798</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43798</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43801</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>43814</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>43816</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>43818</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43833</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43844</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43845</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43845</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43850</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43854</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43858</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43861</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>43861</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43861</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>43866</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>43866</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>43873</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43873</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>43875</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>43875</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43888</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43895</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43900</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43901</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>43913</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>43923</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43943</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43945</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43945</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43957</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>43963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43970</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43970</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43975</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43976</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43991</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43997</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43997</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44011</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44011</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44013</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44025</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44042</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44044</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44046</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44047</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44056</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44056</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44060</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44066</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>44066</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44066</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44078</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44085</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44089</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44091</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44098</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44099</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44099</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44102</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44102</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44102</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44102</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44102</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44102</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44105</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>44105</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44112</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44116</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44119</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44121</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44128</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44132</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44141</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44144</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>44151</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44151</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44155</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>44162</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>44162</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44162</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44162</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44172</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44182</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44200</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44215</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44228</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44231</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44234</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44245</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44246</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44246</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44260</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44264</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44264</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44264</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>44265</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>44277</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44294</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44313</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44315</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>44330</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>44342</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44344</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44344</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44348</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44356</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>44364</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>44369</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44379</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44380</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44383</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44386</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44418</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44427</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44428</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44445</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44452</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44454</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44456</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44459</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44459</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44459</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44459</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44459</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44459</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44459</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44460</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44460</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44462</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44466</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44469</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44481</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44482</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44483</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44502</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44546</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44564</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44568</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44579</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44579</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44585</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44588</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44594</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44594</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44600</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44603</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44608</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44613</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44617</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44650</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44664</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44664</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44665</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44670</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44685</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44685</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>44691</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>44701</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>44701</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44701</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>44721</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>44804</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44804</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44804</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44809</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44812</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44812</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44816</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44818</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44818</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44826</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44826</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44826</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44827</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44827</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44837</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44838</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44858</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44869</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>44869</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44874</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44886</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44897</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44898</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44901</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44902</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44902</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44902</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44928</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>44928</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>44928</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44928</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44939</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44945</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44945</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44946</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44946</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44946</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44946</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44950</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44952</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44956</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44956</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44956</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44965</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>44970</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
         <v>44972</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26026,7 +26026,7 @@
         <v>44972</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         <v>44974</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>44974</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44988</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26311,7 +26311,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>45013</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45013</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>45020</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>45020</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         <v>45021</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45022</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>45031</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>45041</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>45041</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45041</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45043</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45046</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45046</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45048</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45052</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45054</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45055</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45071</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45077</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45079</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45083</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45099</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45106</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>45109</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>45109</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>45111</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45111</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>45118</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45128</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45132</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45132</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45132</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45132</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45132</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45145</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>45148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>45154</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>45161</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>45161</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>45162</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>45163</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>45163</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>45167</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>45175</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>

--- a/Översikt NÄSSJÖ.xlsx
+++ b/Översikt NÄSSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43339</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44027</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44956</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43726</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44179</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45043</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43987</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44209</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>44498</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44537</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44839</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44886</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44928</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45044</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43339</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43340</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43365</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43378</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43390</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43391</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43411</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43414</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43419</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43420</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43420</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43430</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43443</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43450</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43454</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43484</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43486</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43487</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43489</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43490</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43494</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43515</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43515</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43515</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43521</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43521</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43523</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43525</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43528</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43557</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43560</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43562</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43582</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43590</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43599</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43599</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43601</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43620</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43620</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43621</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43633</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43633</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43635</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43636</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43670</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43686</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>43705</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>43711</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>43714</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>43725</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43734</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43734</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43736</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43736</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43740</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43740</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43742</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43748</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43753</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43756</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43760</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43769</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43770</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43773</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43776</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43798</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43798</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43798</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43801</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>43814</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>43816</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>43818</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43833</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43844</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43845</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43845</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43850</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43854</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43858</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43861</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>43861</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43861</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>43866</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>43866</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>43873</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43873</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>43875</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>43875</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43888</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43895</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43900</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43901</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>43913</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>43923</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43943</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43945</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43945</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43957</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>43963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43970</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43970</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43975</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43976</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43991</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43997</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43997</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44011</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44011</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44013</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44025</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44042</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44044</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44046</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44047</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44056</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44056</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44060</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44066</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>44066</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44066</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44078</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44085</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44089</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44091</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44098</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44099</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44099</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44102</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44102</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44102</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44102</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44102</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44102</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44105</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>44105</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44112</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44116</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44119</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44121</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44128</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44132</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44141</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44144</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>44151</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44151</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44155</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>44162</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>44162</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44162</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44162</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44172</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44182</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44200</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44215</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44228</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44231</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44234</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44245</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44246</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44246</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44260</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44264</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44264</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44264</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>44265</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>44277</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44294</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44313</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44315</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>44330</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>44342</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44344</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44344</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44348</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44356</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>44364</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>44369</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44379</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44380</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44383</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44386</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44418</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44427</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44428</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44445</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44452</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44454</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44456</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44459</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44459</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44459</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44459</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44459</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44459</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44459</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44460</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44460</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44462</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44466</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44469</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44481</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44482</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44483</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44502</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44546</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44564</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44568</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44579</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44579</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44585</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44588</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44594</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44594</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44600</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44603</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44608</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44613</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44617</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44650</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44664</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44664</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44665</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44670</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44685</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44685</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>44691</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>44701</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>44701</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44701</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>44721</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>44804</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44804</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44804</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44809</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44812</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44812</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44816</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44818</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44818</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44826</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44826</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44826</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44827</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44827</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44837</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44838</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44858</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44869</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>44869</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44874</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44886</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44897</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44898</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44901</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44902</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44902</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44902</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44928</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>44928</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>44928</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44928</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44939</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44945</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44945</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44946</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44946</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44946</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44946</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44950</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44952</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44956</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44956</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44956</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44965</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>44970</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
         <v>44972</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26026,7 +26026,7 @@
         <v>44972</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         <v>44974</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>44974</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44988</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26311,7 +26311,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>45013</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45013</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>45020</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>45020</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         <v>45021</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45022</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>45031</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>45041</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>45041</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45041</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45043</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45046</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45046</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45048</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45052</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45054</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45055</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45071</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45077</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45079</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45083</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45099</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45106</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>45109</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>45109</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>45111</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45111</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>45118</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45128</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45132</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45132</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45132</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45132</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45132</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45145</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>45148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>45154</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>45161</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>45161</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>45162</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>45163</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>45163</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>45167</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>45175</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>

--- a/Översikt NÄSSJÖ.xlsx
+++ b/Översikt NÄSSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43339</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44027</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44956</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43726</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44179</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45043</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43987</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44209</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>44498</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44537</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44839</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44886</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44928</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45044</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43339</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43340</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43365</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43378</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43390</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43391</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43411</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43414</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43419</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43420</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43420</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43430</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43443</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43450</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43454</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43484</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43486</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43487</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43489</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43490</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43494</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43515</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43515</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43515</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43521</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43521</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43523</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43525</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43528</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43557</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43560</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43562</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43582</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43590</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43599</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43599</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43601</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43620</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43620</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43621</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43633</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43633</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43635</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43636</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43670</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43686</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>43705</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>43711</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>43714</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>43725</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43734</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43734</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43736</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43736</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43740</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43740</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43742</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43748</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43753</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43756</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43760</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43769</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43770</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43773</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43776</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43798</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43798</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43798</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43801</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>43814</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>43816</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>43818</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43833</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43844</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43845</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43845</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43850</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43854</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43858</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43861</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>43861</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43861</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>43866</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>43866</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>43873</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43873</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>43875</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>43875</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43888</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43895</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43900</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43901</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>43913</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>43923</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43943</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43945</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43945</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43957</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>43963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43970</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43970</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43975</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43976</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43991</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43997</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43997</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44011</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44011</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44013</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44025</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44042</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44044</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44046</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44047</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44056</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44056</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44060</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44066</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>44066</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44066</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44078</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44085</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44089</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44091</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44098</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44099</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44099</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44102</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44102</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44102</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44102</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44102</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44102</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44105</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>44105</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44112</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44116</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44119</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44121</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44128</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44132</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44141</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44144</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>44151</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44151</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44155</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>44162</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>44162</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44162</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44162</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44172</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44182</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44200</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44215</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44228</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44231</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44234</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44245</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44246</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44246</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44260</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44264</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44264</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44264</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>44265</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>44277</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44294</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44313</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44315</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>44330</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>44342</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44344</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44344</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44348</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44356</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>44364</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>44369</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44379</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44380</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44383</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44386</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44418</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44427</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44428</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44445</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44452</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44454</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44456</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44459</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44459</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44459</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44459</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44459</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44459</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44459</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44460</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44460</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44462</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44466</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44469</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44481</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44482</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44483</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44502</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44546</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44564</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44568</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44579</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44579</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44585</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44588</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44594</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44594</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44600</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44603</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44608</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44613</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44617</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44650</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44664</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44664</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44665</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44670</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44685</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44685</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>44691</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>44701</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>44701</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44701</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>44721</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>44804</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44804</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44804</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44809</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44812</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44812</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44816</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44818</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44818</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44826</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44826</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44826</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44827</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44827</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44837</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44838</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44858</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44869</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>44869</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44874</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44886</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44897</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44898</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44901</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44902</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44902</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44902</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44928</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>44928</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>44928</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44928</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44939</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44945</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44945</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44946</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44946</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44946</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44946</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44950</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44952</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44956</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44956</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44956</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44965</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>44970</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
         <v>44972</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26026,7 +26026,7 @@
         <v>44972</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         <v>44974</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>44974</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44988</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26311,7 +26311,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>45013</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45013</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>45020</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>45020</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         <v>45021</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45022</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>45031</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>45041</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>45041</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45041</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45043</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45046</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45046</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45048</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45052</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45054</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45055</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45071</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45077</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45079</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45083</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45099</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45106</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>45109</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>45109</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>45111</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45111</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>45118</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45128</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45132</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45132</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45132</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45132</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45132</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45145</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>45148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>45154</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>45161</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>45161</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>45162</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>45163</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>45163</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>45167</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>45175</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>

--- a/Översikt NÄSSJÖ.xlsx
+++ b/Översikt NÄSSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43339</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44027</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44956</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43726</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44179</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45043</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43987</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44209</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>44498</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44537</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44839</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44886</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44928</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45044</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43339</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43340</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43365</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43378</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43390</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43391</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43411</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43414</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43419</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43420</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43420</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43430</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43443</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43450</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43454</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43484</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43486</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43487</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43489</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43490</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43494</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43515</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43515</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43515</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43521</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43521</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43523</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43525</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43528</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43557</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43560</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43562</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43582</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43590</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43599</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43599</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43601</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43620</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43620</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43621</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43633</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43633</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43635</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43636</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43670</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43686</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>43705</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>43711</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>43714</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>43725</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43734</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43734</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43736</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43736</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43740</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43740</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43742</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43748</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43753</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43756</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43760</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43769</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43770</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43773</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43776</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43798</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43798</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43798</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43801</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>43814</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>43816</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>43818</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43833</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43844</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43845</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43845</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43850</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43854</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43858</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43861</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>43861</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43861</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>43866</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>43866</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>43873</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43873</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>43875</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>43875</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43888</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43895</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43900</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43901</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>43913</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>43923</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43943</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43945</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43945</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43957</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>43963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43970</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43970</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43975</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43976</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43991</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43997</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43997</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44011</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44011</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44013</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44025</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44042</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44044</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44046</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44047</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44056</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44056</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44060</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44066</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>44066</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44066</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44078</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44085</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44089</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44091</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44098</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44099</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44099</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44102</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44102</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44102</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44102</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44102</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44102</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44105</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>44105</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44112</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44116</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44119</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44121</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44128</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44132</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44141</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44144</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>44151</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44151</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44155</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>44162</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>44162</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44162</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44162</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44172</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44182</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44200</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44215</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44228</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44231</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44234</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44245</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44246</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44246</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44260</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44264</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44264</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44264</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>44265</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>44277</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44294</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44313</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44315</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>44330</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>44342</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44344</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44344</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44348</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44356</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>44364</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>44369</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44379</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44380</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44383</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44386</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44418</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44427</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44428</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44445</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44452</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44454</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44456</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44459</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44459</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44459</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44459</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44459</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44459</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44459</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44460</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44460</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44462</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44466</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44469</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44481</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44482</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44483</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44502</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44546</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44564</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44568</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44579</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44579</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44585</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44588</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44594</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44594</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44600</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44603</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44608</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44613</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44617</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44650</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44664</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44664</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44665</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44670</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44685</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44685</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>44691</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>44701</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>44701</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44701</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>44721</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>44804</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44804</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44804</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44809</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44812</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44812</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44816</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44818</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44818</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44826</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44826</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44826</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44827</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44827</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44837</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44838</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44858</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44869</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>44869</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44874</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44886</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44897</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44898</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44901</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44902</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44902</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44902</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44928</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>44928</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>44928</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44928</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44939</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44945</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44945</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44946</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44946</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44946</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44946</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44950</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44952</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44956</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44956</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44956</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44965</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>44970</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
         <v>44972</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26026,7 +26026,7 @@
         <v>44972</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         <v>44974</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>44974</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44988</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26311,7 +26311,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>45013</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45013</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>45020</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>45020</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         <v>45021</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45022</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>45031</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>45041</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>45041</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45041</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45043</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45046</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45046</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45048</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45052</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45054</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45055</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45071</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45077</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45079</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45083</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45099</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45106</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>45109</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>45109</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>45111</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45111</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>45118</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45128</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45132</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45132</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45132</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45132</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45132</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45145</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>45148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>45154</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>45161</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>45161</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>45162</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>45163</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>45163</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>45167</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>45175</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>

--- a/Översikt NÄSSJÖ.xlsx
+++ b/Översikt NÄSSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43339</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44027</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44956</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43726</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44179</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45043</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43987</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44209</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>44498</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44537</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44839</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44886</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44928</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45044</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43339</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43340</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43365</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43378</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43390</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43391</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43411</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43414</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43419</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43420</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43420</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43430</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43443</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43450</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43454</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43484</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43486</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43487</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43489</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43490</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43494</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43515</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43515</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43515</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43521</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43521</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43523</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43525</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43528</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43557</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43560</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43562</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43582</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43590</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43599</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43599</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43601</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43620</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43620</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43621</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43633</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43633</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43635</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43636</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43670</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43686</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>43705</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>43711</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>43714</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>43725</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43734</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43734</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43736</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43736</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43740</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43740</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43742</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43748</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43753</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43756</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43760</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43769</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43770</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43773</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43776</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43798</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43798</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43798</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43801</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>43814</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>43816</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>43818</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43833</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43844</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43845</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43845</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43850</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43854</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43858</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43861</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>43861</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43861</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>43866</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>43866</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>43873</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43873</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>43875</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>43875</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43888</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43895</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43900</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43901</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>43913</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>43923</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43943</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43945</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43945</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43957</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>43963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43970</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43970</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43975</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43976</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43991</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43997</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43997</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44011</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44011</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44013</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44025</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44042</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44044</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44046</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44047</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44056</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44056</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44060</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44066</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>44066</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44066</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44078</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44085</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44089</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44091</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44098</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44099</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44099</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44102</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44102</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44102</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44102</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44102</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44102</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44105</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>44105</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44112</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44116</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44119</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44121</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44128</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44132</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44141</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44144</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>44151</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44151</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44155</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>44162</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>44162</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44162</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44162</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44172</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44182</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44200</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44215</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44228</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44231</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44234</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44245</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44246</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44246</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44260</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44264</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44264</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44264</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>44265</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>44277</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44294</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44313</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44315</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>44330</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>44342</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44344</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44344</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44348</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44356</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>44364</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>44369</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44379</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44380</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44383</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44386</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44418</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44427</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44428</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44445</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44452</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44454</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44456</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44459</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44459</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44459</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44459</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44459</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44459</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44459</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44460</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44460</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44462</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44466</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44469</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44481</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44482</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44483</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44502</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44546</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44564</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44568</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44579</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44579</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44585</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44588</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44594</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44594</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44600</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44603</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44608</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44613</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44617</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44650</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44664</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44664</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44665</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44670</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44685</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44685</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>44691</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>44701</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>44701</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44701</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>44721</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>44804</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44804</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44804</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44809</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44812</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44812</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44816</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44818</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44818</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44826</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44826</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44826</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44827</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44827</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44837</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44838</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44858</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44869</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>44869</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44874</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44886</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44897</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44898</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44901</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44902</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44902</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44902</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44928</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>44928</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>44928</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44928</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44939</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44945</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44945</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44946</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44946</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44946</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44946</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44950</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44952</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44956</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44956</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44956</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44965</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>44970</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
         <v>44972</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26026,7 +26026,7 @@
         <v>44972</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         <v>44974</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>44974</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44988</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26311,7 +26311,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>45013</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45013</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>45020</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>45020</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         <v>45021</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45022</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>45031</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>45041</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>45041</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45041</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45043</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45046</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45046</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45048</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45052</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45054</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45055</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45071</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45077</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45079</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45083</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45099</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45106</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>45109</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>45109</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>45111</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45111</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>45118</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45128</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45132</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45132</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45132</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45132</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45132</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45145</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>45148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>45154</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>45161</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>45161</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>45162</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>45163</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>45163</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>45167</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>45175</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>

--- a/Översikt NÄSSJÖ.xlsx
+++ b/Översikt NÄSSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43339</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44027</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44956</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43726</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44179</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45043</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43987</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44209</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>44498</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44537</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44839</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44886</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44928</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45044</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43339</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43340</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43365</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43378</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43390</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43391</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43411</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43414</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43419</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43420</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43420</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43430</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43443</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43450</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43454</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43484</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43486</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43487</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43489</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43490</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43494</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43515</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43515</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43515</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43521</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43521</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43523</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43525</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43528</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43557</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43560</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43562</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43582</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43590</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43599</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43599</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43601</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43620</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43620</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43621</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43633</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43633</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43635</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43636</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43670</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43686</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>43705</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>43711</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>43714</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>43725</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43734</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43734</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43736</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43736</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43740</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43740</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43742</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43748</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43753</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43756</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43760</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43769</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43770</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43773</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43776</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43798</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43798</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43798</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43801</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>43814</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>43816</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>43818</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43833</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43844</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43845</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43845</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43850</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43854</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43858</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43861</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>43861</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43861</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>43866</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>43866</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>43873</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43873</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>43875</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>43875</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43888</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43895</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43900</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43901</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>43913</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>43923</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43943</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43945</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43945</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43957</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>43963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43970</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43970</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43975</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43976</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43991</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43997</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43997</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44011</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44011</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44013</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44025</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44042</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44044</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44046</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44047</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44056</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44056</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44060</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44066</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>44066</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44066</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44078</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44085</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44089</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44091</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44098</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44099</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44099</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44102</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44102</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44102</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44102</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44102</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44102</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44105</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>44105</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44112</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44116</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44119</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44121</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44128</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44132</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44141</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44144</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>44151</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44151</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44155</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>44162</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>44162</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44162</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44162</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44172</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44182</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44200</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44215</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44228</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44231</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44234</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44245</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44246</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44246</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44260</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44264</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44264</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44264</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>44265</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>44277</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44294</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44313</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44315</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>44330</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>44342</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44344</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44344</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44348</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44356</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>44364</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>44369</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44379</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44380</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44383</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44386</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44418</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44427</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44428</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44445</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44452</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44454</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44456</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44459</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44459</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44459</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44459</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44459</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44459</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44459</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44460</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44460</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44462</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44466</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44469</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44481</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44482</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44483</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44502</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44546</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44564</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44568</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44579</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44579</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44585</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44588</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44594</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44594</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44600</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44603</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44608</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44613</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44617</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44650</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44664</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44664</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44665</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44670</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44685</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44685</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>44691</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>44701</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>44701</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44701</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>44721</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>44804</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44804</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44804</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44809</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44812</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44812</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44816</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44818</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44818</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44826</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44826</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44826</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44827</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44827</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44837</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44838</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44858</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44869</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>44869</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44874</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44886</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44897</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44898</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44901</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44902</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44902</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44902</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44928</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>44928</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>44928</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44928</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44939</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44945</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44945</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44946</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44946</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44946</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44946</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44950</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44952</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44956</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44956</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44956</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44965</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>44970</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
         <v>44972</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26026,7 +26026,7 @@
         <v>44972</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         <v>44974</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>44974</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44988</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26311,7 +26311,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>45013</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45013</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>45020</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>45020</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         <v>45021</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45022</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>45031</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>45041</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>45041</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45041</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45043</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45046</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45046</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45048</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45052</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45054</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45055</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45071</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45077</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45079</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45083</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45099</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45106</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>45109</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>45109</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>45111</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45111</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>45118</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45128</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45132</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45132</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45132</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45132</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45132</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45145</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>45148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>45154</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>45161</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>45161</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>45162</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>45163</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>45163</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>45167</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>45175</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>

--- a/Översikt NÄSSJÖ.xlsx
+++ b/Översikt NÄSSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43339</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -627,27 +627,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 39284-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 39284-2018.xlsx", "A 39284-2018")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 39284-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 39284-2018.png", "A 39284-2018")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 39284-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 39284-2018.docx", "A 39284-2018")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 39284-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 39284-2018.docx", "A 39284-2018")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 39284-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 39284-2018.docx", "A 39284-2018")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 39284-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 39284-2018.docx", "A 39284-2018")</f>
         <v/>
       </c>
     </row>
@@ -661,7 +661,7 @@
         <v>43608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -716,27 +716,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 25823-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 25823-2019.xlsx", "A 25823-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 25823-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 25823-2019.png", "A 25823-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 25823-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 25823-2019.docx", "A 25823-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 25823-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 25823-2019.docx", "A 25823-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 25823-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 25823-2019.docx", "A 25823-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 25823-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 25823-2019.docx", "A 25823-2019")</f>
         <v/>
       </c>
     </row>
@@ -750,7 +750,7 @@
         <v>44027</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -803,31 +803,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 34063-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 34063-2020.xlsx", "A 34063-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 34063-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 34063-2020.png", "A 34063-2020")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/knärot/A 34063-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/knärot/A 34063-2020.png", "A 34063-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 34063-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 34063-2020.docx", "A 34063-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 34063-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 34063-2020.docx", "A 34063-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 34063-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 34063-2020.docx", "A 34063-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 34063-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 34063-2020.docx", "A 34063-2020")</f>
         <v/>
       </c>
     </row>
@@ -841,7 +841,7 @@
         <v>44956</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -894,27 +894,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 4906-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 4906-2023.xlsx", "A 4906-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 4906-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 4906-2023.png", "A 4906-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 4906-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 4906-2023.docx", "A 4906-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 4906-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 4906-2023.docx", "A 4906-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 4906-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 4906-2023.docx", "A 4906-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 4906-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 4906-2023.docx", "A 4906-2023")</f>
         <v/>
       </c>
     </row>
@@ -928,7 +928,7 @@
         <v>43726</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -980,27 +980,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 48284-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 48284-2019.xlsx", "A 48284-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 48284-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 48284-2019.png", "A 48284-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 48284-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 48284-2019.docx", "A 48284-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 48284-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 48284-2019.docx", "A 48284-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 48284-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 48284-2019.docx", "A 48284-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 48284-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 48284-2019.docx", "A 48284-2019")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>44179</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1066,31 +1066,31 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 66627-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 66627-2020.xlsx", "A 66627-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 66627-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 66627-2020.png", "A 66627-2020")</f>
         <v/>
       </c>
       <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/knärot/A 66627-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/knärot/A 66627-2020.png", "A 66627-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 66627-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 66627-2020.docx", "A 66627-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 66627-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 66627-2020.docx", "A 66627-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 66627-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 66627-2020.docx", "A 66627-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 66627-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 66627-2020.docx", "A 66627-2020")</f>
         <v/>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
         <v>45043</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1156,27 +1156,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 18733-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 18733-2023.xlsx", "A 18733-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 18733-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 18733-2023.png", "A 18733-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 18733-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 18733-2023.docx", "A 18733-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 18733-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 18733-2023.docx", "A 18733-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 18733-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 18733-2023.docx", "A 18733-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 18733-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 18733-2023.docx", "A 18733-2023")</f>
         <v/>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1241,27 +1241,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 45216-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 45216-2018.xlsx", "A 45216-2018")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 45216-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 45216-2018.png", "A 45216-2018")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 45216-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 45216-2018.docx", "A 45216-2018")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 45216-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 45216-2018.docx", "A 45216-2018")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 45216-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 45216-2018.docx", "A 45216-2018")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 45216-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 45216-2018.docx", "A 45216-2018")</f>
         <v/>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1326,27 +1326,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 25827-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 25827-2019.xlsx", "A 25827-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 25827-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 25827-2019.png", "A 25827-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 25827-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 25827-2019.docx", "A 25827-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 25827-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 25827-2019.docx", "A 25827-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 25827-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 25827-2019.docx", "A 25827-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 25827-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 25827-2019.docx", "A 25827-2019")</f>
         <v/>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
         <v>43987</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1411,27 +1411,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 26543-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 26543-2020.xlsx", "A 26543-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 26543-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 26543-2020.png", "A 26543-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 26543-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 26543-2020.docx", "A 26543-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 26543-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 26543-2020.docx", "A 26543-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 26543-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 26543-2020.docx", "A 26543-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 26543-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 26543-2020.docx", "A 26543-2020")</f>
         <v/>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
         <v>44209</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1501,27 +1501,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 1512-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 1512-2021.xlsx", "A 1512-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 1512-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 1512-2021.png", "A 1512-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 1512-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 1512-2021.docx", "A 1512-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 1512-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 1512-2021.docx", "A 1512-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 1512-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 1512-2021.docx", "A 1512-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 1512-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 1512-2021.docx", "A 1512-2021")</f>
         <v/>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
         <v>44371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1591,27 +1591,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 32245-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 32245-2021.xlsx", "A 32245-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 32245-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 32245-2021.png", "A 32245-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 32245-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 32245-2021.docx", "A 32245-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 32245-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 32245-2021.docx", "A 32245-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 32245-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 32245-2021.docx", "A 32245-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 32245-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 32245-2021.docx", "A 32245-2021")</f>
         <v/>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
         <v>44498</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1676,27 +1676,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 61201-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 61201-2021.xlsx", "A 61201-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 61201-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 61201-2021.png", "A 61201-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 61201-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 61201-2021.docx", "A 61201-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 61201-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 61201-2021.docx", "A 61201-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 61201-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 61201-2021.docx", "A 61201-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 61201-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 61201-2021.docx", "A 61201-2021")</f>
         <v/>
       </c>
     </row>
@@ -1710,7 +1710,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1761,27 +1761,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 68409-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 68409-2021.xlsx", "A 68409-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 68409-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 68409-2021.png", "A 68409-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 68409-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 68409-2021.docx", "A 68409-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 68409-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 68409-2021.docx", "A 68409-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 68409-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 68409-2021.docx", "A 68409-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 68409-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 68409-2021.docx", "A 68409-2021")</f>
         <v/>
       </c>
     </row>
@@ -1795,7 +1795,7 @@
         <v>44537</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1846,27 +1846,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 70820-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 70820-2021.xlsx", "A 70820-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 70820-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 70820-2021.png", "A 70820-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 70820-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 70820-2021.docx", "A 70820-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 70820-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 70820-2021.docx", "A 70820-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 70820-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 70820-2021.docx", "A 70820-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 70820-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 70820-2021.docx", "A 70820-2021")</f>
         <v/>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
         <v>44839</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1931,31 +1931,31 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 44455-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 44455-2022.xlsx", "A 44455-2022")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 44455-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 44455-2022.png", "A 44455-2022")</f>
         <v/>
       </c>
       <c r="U17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/knärot/A 44455-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/knärot/A 44455-2022.png", "A 44455-2022")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 44455-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 44455-2022.docx", "A 44455-2022")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 44455-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 44455-2022.docx", "A 44455-2022")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 44455-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 44455-2022.docx", "A 44455-2022")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 44455-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 44455-2022.docx", "A 44455-2022")</f>
         <v/>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
         <v>44839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2020,31 +2020,31 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 44129-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 44129-2022.xlsx", "A 44129-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 44129-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 44129-2022.png", "A 44129-2022")</f>
         <v/>
       </c>
       <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/knärot/A 44129-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/knärot/A 44129-2022.png", "A 44129-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 44129-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 44129-2022.docx", "A 44129-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 44129-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 44129-2022.docx", "A 44129-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 44129-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 44129-2022.docx", "A 44129-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 44129-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 44129-2022.docx", "A 44129-2022")</f>
         <v/>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
         <v>44886</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2109,31 +2109,31 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 55860-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 55860-2022.xlsx", "A 55860-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 55860-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 55860-2022.png", "A 55860-2022")</f>
         <v/>
       </c>
       <c r="U19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/knärot/A 55860-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/knärot/A 55860-2022.png", "A 55860-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 55860-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 55860-2022.docx", "A 55860-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 55860-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 55860-2022.docx", "A 55860-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 55860-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 55860-2022.docx", "A 55860-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 55860-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 55860-2022.docx", "A 55860-2022")</f>
         <v/>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
         <v>44928</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2198,27 +2198,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 254-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 254-2023.xlsx", "A 254-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 254-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 254-2023.png", "A 254-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 254-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 254-2023.docx", "A 254-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 254-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 254-2023.docx", "A 254-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 254-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 254-2023.docx", "A 254-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 254-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 254-2023.docx", "A 254-2023")</f>
         <v/>
       </c>
     </row>
@@ -2232,7 +2232,7 @@
         <v>45044</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2288,27 +2288,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 18880-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 18880-2023.xlsx", "A 18880-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 18880-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 18880-2023.png", "A 18880-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 18880-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 18880-2023.docx", "A 18880-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 18880-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 18880-2023.docx", "A 18880-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 18880-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 18880-2023.docx", "A 18880-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 18880-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 18880-2023.docx", "A 18880-2023")</f>
         <v/>
       </c>
     </row>
@@ -2322,7 +2322,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2373,27 +2373,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 25705-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/artfynd/A 25705-2023.xlsx", "A 25705-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 25705-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/kartor/A 25705-2023.png", "A 25705-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 25705-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomål/A 25705-2023.docx", "A 25705-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 25705-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/klagomålsmail/A 25705-2023.docx", "A 25705-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 25705-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsyn/A 25705-2023.docx", "A 25705-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 25705-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NASSJO/tillsynsmail/A 25705-2023.docx", "A 25705-2023")</f>
         <v/>
       </c>
     </row>
@@ -2407,7 +2407,7 @@
         <v>43333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43339</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43340</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43365</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43378</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43390</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43391</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43411</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43414</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43419</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43420</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43420</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43430</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43443</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43450</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43454</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43484</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43486</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43487</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43489</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43490</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43494</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43515</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43515</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43515</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43521</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43521</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43523</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43525</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43528</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43557</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43560</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43562</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43582</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43590</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43599</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43599</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43601</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43620</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43620</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43621</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43633</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43633</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43635</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43636</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43670</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43686</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>43705</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>43711</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>43714</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>43725</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43734</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43734</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43736</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43736</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43740</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43740</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43742</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43748</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43753</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43756</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43760</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43769</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43770</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43773</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43776</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43798</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43798</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43798</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43801</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>43814</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>43816</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>43818</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43833</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43844</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43845</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43845</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43850</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43854</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43858</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43861</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>43861</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43861</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>43866</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>43866</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>43873</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43873</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>43875</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>43875</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43888</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43895</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43900</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43901</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>43913</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>43923</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43943</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43945</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43945</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43957</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>43963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43970</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43970</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43975</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43976</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43991</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43997</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43997</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44011</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44011</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44013</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44025</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44042</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44044</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44046</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44047</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44056</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44056</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44060</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44066</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>44066</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44066</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44078</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44085</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44089</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44091</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44098</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44099</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44099</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44102</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44102</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44102</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44102</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44102</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44102</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44105</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>44105</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44112</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44116</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44119</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44121</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44128</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44132</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44141</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44144</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>44151</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44151</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44155</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>44162</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>44162</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44162</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44162</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44172</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44182</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44200</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44215</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44228</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44231</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44234</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44245</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44246</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44246</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44260</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44264</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44264</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44264</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>44265</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>44277</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44294</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44313</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44315</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>44330</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>44342</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44344</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44344</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44348</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44356</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>44364</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>44369</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44379</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44380</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44383</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44386</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44418</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44427</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44428</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44445</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44452</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44454</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44456</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44459</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44459</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44459</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44459</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44459</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44459</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44459</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44460</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44460</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44462</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44466</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44469</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44481</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44482</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44483</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44502</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44546</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44564</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44568</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44579</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44579</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44585</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44588</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44594</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44594</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44600</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44603</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44608</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44613</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44617</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44650</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44664</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44664</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44665</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44670</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44685</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44685</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>44691</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>44701</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>44701</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44701</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>44721</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>44804</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44804</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44804</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44809</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44812</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44812</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44816</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44818</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44818</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44826</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44826</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44826</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44827</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44827</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44837</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44838</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44858</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44869</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>44869</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44874</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44886</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44897</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44898</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44901</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44902</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44902</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44902</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44928</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>44928</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>44928</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44928</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44939</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44945</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44945</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44946</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44946</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44946</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44946</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44950</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44952</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44956</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44956</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44956</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44965</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>44970</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
         <v>44972</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26026,7 +26026,7 @@
         <v>44972</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         <v>44974</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>44974</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44988</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26311,7 +26311,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>45013</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45013</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>45020</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>45020</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         <v>45021</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45022</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>45031</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>45041</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>45041</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45041</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45043</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45046</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45046</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45048</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45052</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45054</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45055</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45071</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45077</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45079</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45083</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45099</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45106</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>45109</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>45109</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>45111</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45111</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>45118</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45128</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45132</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45132</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45132</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45132</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45132</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45145</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>45148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>45154</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>45161</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>45161</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>45162</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>45163</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>45163</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>45167</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>45175</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>

--- a/Översikt NÄSSJÖ.xlsx
+++ b/Översikt NÄSSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43339</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44027</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44956</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43726</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44179</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45043</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43987</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44209</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>44498</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44537</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44839</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44886</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44928</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45044</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43339</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43340</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43365</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43378</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43390</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43391</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43411</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43414</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43419</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43420</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43420</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43430</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43443</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43450</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43454</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43484</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43486</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43487</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43489</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43490</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43494</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43515</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43515</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43515</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43521</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43521</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43523</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43525</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43528</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43557</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43560</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43562</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43582</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43590</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43599</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43599</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43601</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43620</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43620</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43621</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43633</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43633</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43635</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43636</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43670</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43686</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>43705</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>43711</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>43714</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>43725</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43734</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43734</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43736</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43736</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43740</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43740</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43742</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43748</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43753</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43756</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43760</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43769</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43770</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43773</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43776</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43798</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43798</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43798</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43801</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>43814</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>43816</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>43818</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43833</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43844</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43845</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43845</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43850</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43854</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43858</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43861</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>43861</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43861</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>43866</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>43866</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>43873</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43873</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>43875</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>43875</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43888</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43895</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43900</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43901</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>43913</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>43923</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43943</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43945</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43945</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43957</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>43963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43970</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43970</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43975</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43976</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43991</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43997</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43997</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44011</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44011</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44013</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44025</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44042</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44044</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44046</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44047</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44056</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44056</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44060</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44066</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>44066</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44066</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44078</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44085</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44089</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44091</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44098</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44099</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44099</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44102</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44102</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44102</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44102</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44102</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44102</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44105</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>44105</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44112</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44116</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44119</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44121</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44128</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44132</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44141</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44144</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>44151</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44151</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44155</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>44162</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>44162</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44162</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44162</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44172</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44182</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44200</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44215</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44228</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44231</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44234</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44245</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44246</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44246</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44260</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44264</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44264</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44264</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>44265</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>44277</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44294</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44313</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44315</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>44330</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>44342</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44344</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44344</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44348</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44356</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>44364</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>44369</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44379</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44380</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44383</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44386</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44418</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44427</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44428</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44445</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44452</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44454</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44456</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44459</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44459</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44459</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44459</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44459</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44459</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44459</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44460</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44460</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44462</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44466</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44469</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44481</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44482</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44483</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44502</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44546</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44564</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44568</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44579</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44579</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44585</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44588</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44594</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44594</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44600</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44603</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44608</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44613</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44617</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44650</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44664</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44664</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44665</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44670</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44685</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44685</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>44691</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>44701</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>44701</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44701</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>44721</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>44804</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44804</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44804</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44809</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44812</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44812</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44816</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44818</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44818</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44826</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44826</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44826</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44827</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44827</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44837</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44838</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44858</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44869</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>44869</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44874</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44886</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44897</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44898</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44901</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44902</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44902</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44902</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44928</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>44928</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>44928</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44928</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44939</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44945</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44945</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44946</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44946</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44946</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44946</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44950</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44952</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44956</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44956</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44956</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44965</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>44970</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
         <v>44972</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26026,7 +26026,7 @@
         <v>44972</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         <v>44974</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>44974</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44988</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26311,7 +26311,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>45013</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45013</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>45020</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>45020</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         <v>45021</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45022</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>45031</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>45041</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>45041</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45041</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45043</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45046</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45046</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45048</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45052</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45054</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45055</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45071</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45077</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45079</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45083</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45099</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45106</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>45109</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>45109</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>45111</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45111</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>45118</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45128</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45132</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45132</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45132</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45132</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45132</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45145</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>45148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>45154</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>45161</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>45161</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>45162</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>45163</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>45163</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>45167</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>45175</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>

--- a/Översikt NÄSSJÖ.xlsx
+++ b/Översikt NÄSSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43339</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44027</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44956</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43726</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44179</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45043</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43987</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44209</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>44498</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44537</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44839</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44886</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44928</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45044</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43339</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43340</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43365</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43378</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43390</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43391</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43411</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43414</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43419</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43420</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43420</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43430</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43443</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43450</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43454</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43484</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43486</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43487</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43489</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43490</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43494</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43515</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43515</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43515</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43521</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43521</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43523</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43525</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43528</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43557</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43560</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43562</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43582</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43590</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43599</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43599</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43601</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43620</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43620</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43621</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43633</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43633</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43635</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43636</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43670</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43686</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>43705</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>43711</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>43714</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>43725</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43734</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43734</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43736</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43736</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43740</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43740</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43742</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43748</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43753</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43756</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43760</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43769</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43770</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43773</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43776</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43798</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43798</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43798</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43801</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>43814</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>43816</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>43818</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43833</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43844</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43845</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43845</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43850</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43854</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43858</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43861</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>43861</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43861</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>43866</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>43866</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>43873</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43873</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>43875</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>43875</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43888</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43895</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43900</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43901</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>43913</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>43923</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43943</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43945</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43945</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43957</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>43963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43970</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43970</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43975</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43976</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43991</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43997</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43997</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44011</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44011</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44013</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44025</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44042</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44044</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44046</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44047</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44056</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44056</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44060</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44066</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>44066</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44066</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44078</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44085</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44089</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44091</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44098</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44099</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44099</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44102</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44102</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44102</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44102</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44102</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44102</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44105</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>44105</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44112</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44116</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44119</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44121</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44128</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44132</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44141</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44144</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>44151</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44151</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44155</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>44162</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>44162</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44162</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44162</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44172</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44182</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44200</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44215</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44228</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44231</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44234</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44245</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44246</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44246</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44260</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44264</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44264</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44264</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>44265</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>44277</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44294</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44313</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44315</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>44330</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>44342</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44344</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44344</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44348</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44356</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>44364</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>44369</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44379</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44380</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44383</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44386</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44418</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44427</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44428</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44445</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44452</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44454</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44456</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44459</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44459</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44459</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44459</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44459</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44459</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44459</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44460</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44460</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44462</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44466</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44469</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44481</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44482</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44483</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44502</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44546</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44564</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44568</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44579</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44579</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44585</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44588</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44594</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44594</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44600</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44603</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44608</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44613</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44617</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44650</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44664</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44664</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44665</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44670</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44685</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44685</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>44691</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>44701</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>44701</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44701</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>44721</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>44804</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44804</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44804</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44809</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44812</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44812</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44816</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44818</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44818</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44826</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44826</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44826</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44827</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44827</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44837</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44838</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44858</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44869</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>44869</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44874</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44886</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44897</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44898</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44901</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44902</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44902</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44902</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44928</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>44928</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>44928</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44928</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44939</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44945</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44945</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44946</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44946</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44946</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44946</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44950</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44952</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44956</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44956</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44956</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44965</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>44970</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
         <v>44972</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26026,7 +26026,7 @@
         <v>44972</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         <v>44974</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>44974</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44988</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26311,7 +26311,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>45013</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45013</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>45020</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>45020</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         <v>45021</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45022</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>45031</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>45041</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>45041</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45041</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45043</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45046</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45046</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45048</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45052</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45054</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45055</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45071</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45077</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45079</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45083</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45099</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45106</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>45109</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>45109</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>45111</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45111</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>45118</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45128</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45132</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45132</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45132</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45132</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45132</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45145</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>45148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>45154</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>45161</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>45161</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>45162</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>45163</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>45163</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>45167</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>45175</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>

--- a/Översikt NÄSSJÖ.xlsx
+++ b/Översikt NÄSSJÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y498"/>
+  <dimension ref="A1:Y499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43339</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44027</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44956</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43726</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44179</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45043</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43987</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44209</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>44498</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44537</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44839</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44886</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44928</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45044</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43339</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43340</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43365</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43378</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43390</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43391</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43411</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43414</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43419</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43420</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43420</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43430</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43443</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43450</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43454</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43484</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43486</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43487</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43489</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43490</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43494</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43515</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43515</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43515</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43521</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43521</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43523</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43525</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43528</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43557</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43560</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43562</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43582</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43590</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43599</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43599</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43601</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43620</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43620</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43621</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43633</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43633</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43635</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43636</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43670</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43686</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>43705</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>43711</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>43714</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>43725</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43734</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43734</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43736</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43736</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43740</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43740</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43742</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43748</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43753</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43756</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43760</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43769</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43770</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43773</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43776</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43798</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43798</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43798</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43801</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>43814</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>43816</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>43818</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43833</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43844</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43845</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43845</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43850</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43854</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43858</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43861</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>43861</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43861</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>43866</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>43866</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>43873</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43873</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>43875</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>43875</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43888</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43895</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43900</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43901</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>43913</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>43923</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43943</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43945</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43945</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43957</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>43963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43970</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43970</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43975</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43976</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43991</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43997</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43997</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44011</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44011</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44013</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44025</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44042</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44044</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44046</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44047</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44056</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44056</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44060</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44066</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>44066</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44066</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44078</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44085</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44089</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44091</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44098</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44099</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44099</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44102</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44102</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44102</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44102</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44102</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44102</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44105</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>44105</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44112</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44116</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44119</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44121</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44128</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44132</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44141</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44144</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>44151</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44151</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44155</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>44162</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>44162</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44162</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44162</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44172</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44182</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44200</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44215</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44228</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44231</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44234</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44245</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44246</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44246</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44260</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44264</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44264</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44264</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>44265</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>44277</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44294</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44313</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44315</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>44330</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>44342</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44344</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44344</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44348</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44356</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>44364</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>44369</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44379</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44380</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44383</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44386</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44418</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44427</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44428</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44445</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44452</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44454</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44456</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44459</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44459</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44459</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44459</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44459</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44459</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44459</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44460</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44460</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44462</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44466</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44469</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44481</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44482</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44483</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44502</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44546</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44564</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44568</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44579</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44579</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44585</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44588</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44594</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44594</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44600</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44603</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44608</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44613</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44617</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44650</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44664</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44664</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44665</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44670</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44685</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44685</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>44691</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>44701</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>44701</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44701</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>44721</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>44804</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44804</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44804</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44809</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44812</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44812</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44816</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44818</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44818</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44826</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44826</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44826</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44827</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44827</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44837</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44838</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44858</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44869</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>44869</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44874</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44886</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44897</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44898</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44901</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44902</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44902</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44902</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44928</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>44928</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>44928</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44928</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44939</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44945</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44945</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44946</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44946</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44946</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44946</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44950</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44952</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44956</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44956</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44956</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44965</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>44970</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
         <v>44972</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26026,7 +26026,7 @@
         <v>44972</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         <v>44974</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>44974</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44988</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26311,7 +26311,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>45013</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45013</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>45020</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>45020</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         <v>45021</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45022</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>45031</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>45041</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>45041</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45041</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45043</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45046</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45046</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45048</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45052</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45054</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45055</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45071</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45077</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45079</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45083</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45099</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45106</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>45109</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>45109</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>45111</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45111</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>45118</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45128</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45132</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45132</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45132</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45132</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45132</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45145</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>45148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>45154</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>45161</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>45161</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>45162</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>45163</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>45163</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>45167</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29607,7 +29607,7 @@
       </c>
       <c r="R497" s="2" t="inlineStr"/>
     </row>
-    <row r="498">
+    <row r="498" ht="15" customHeight="1">
       <c r="A498" t="inlineStr">
         <is>
           <t>A 41511-2023</t>
@@ -29617,7 +29617,7 @@
         <v>45175</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29663,6 +29663,63 @@
         <v>0</v>
       </c>
       <c r="R498" s="2" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>A 44360-2023</t>
+        </is>
+      </c>
+      <c r="B499" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C499" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>NÄSSJÖ</t>
+        </is>
+      </c>
+      <c r="G499" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H499" t="n">
+        <v>0</v>
+      </c>
+      <c r="I499" t="n">
+        <v>0</v>
+      </c>
+      <c r="J499" t="n">
+        <v>0</v>
+      </c>
+      <c r="K499" t="n">
+        <v>0</v>
+      </c>
+      <c r="L499" t="n">
+        <v>0</v>
+      </c>
+      <c r="M499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N499" t="n">
+        <v>0</v>
+      </c>
+      <c r="O499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q499" t="n">
+        <v>0</v>
+      </c>
+      <c r="R499" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NÄSSJÖ.xlsx
+++ b/Översikt NÄSSJÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y499"/>
+  <dimension ref="A1:Y501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43339</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44027</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44956</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43726</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44179</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45043</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43987</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44209</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>44498</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44537</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44839</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44886</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44928</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45044</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43339</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43340</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43365</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43378</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43390</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43391</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43411</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43414</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43419</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43420</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43420</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43430</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43443</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43450</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43454</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43484</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43486</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43487</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43489</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43490</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43494</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43515</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43515</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43515</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43521</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43521</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43523</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43525</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43528</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43557</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43560</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43562</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43582</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43590</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43599</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43599</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43601</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43620</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43620</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43621</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43633</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43633</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43635</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43636</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43670</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43686</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>43705</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>43711</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>43714</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>43725</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43734</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43734</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43736</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43736</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43740</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43740</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43742</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43748</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43753</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43756</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43760</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43769</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43770</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43773</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43776</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43798</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43798</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43798</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43801</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>43814</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>43816</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>43818</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43833</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43844</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43845</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43845</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43850</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43854</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43858</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43861</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>43861</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43861</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>43866</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>43866</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>43873</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43873</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>43875</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>43875</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43888</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43895</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43900</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43901</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>43913</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>43923</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43943</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43945</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43945</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43957</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>43963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43970</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43970</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43975</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43976</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43991</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43997</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43997</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44011</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44011</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44013</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44025</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44042</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44044</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44046</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44047</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44056</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44056</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44060</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44066</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>44066</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44066</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44078</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44085</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44089</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44091</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44098</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44099</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44099</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44102</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44102</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44102</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44102</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44102</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44102</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44105</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>44105</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44112</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44116</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44119</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44121</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44128</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44132</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44141</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44144</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>44151</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44151</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44155</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>44162</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>44162</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44162</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44162</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44172</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44182</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44200</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44215</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44228</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44231</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44234</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44245</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44246</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44246</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44260</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44264</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44264</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44264</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>44265</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>44277</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44294</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44313</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44315</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>44330</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>44342</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44344</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44344</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44348</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44356</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>44364</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>44369</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44379</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44380</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44383</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44386</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44418</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44427</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44428</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44445</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44452</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44454</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44456</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44459</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44459</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44459</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44459</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44459</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44459</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44459</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44460</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44460</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44462</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44466</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44469</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44481</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44482</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44483</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44502</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44546</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44564</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44568</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44579</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44579</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44585</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44588</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44594</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44594</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44600</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44603</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44608</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44613</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44617</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44650</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44664</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44664</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44665</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44670</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44685</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44685</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>44691</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>44701</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>44701</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44701</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>44721</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>44804</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44804</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44804</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44809</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44812</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44812</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44816</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44818</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44818</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44826</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44826</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44826</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44827</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44827</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44837</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44838</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44858</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44869</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>44869</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44874</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44886</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44897</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44898</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44901</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44902</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44902</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44902</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44928</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>44928</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>44928</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44928</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44939</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44945</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44945</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44946</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44946</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44946</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44946</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44950</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44952</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44956</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44956</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44956</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44965</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>44970</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
         <v>44972</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26026,7 +26026,7 @@
         <v>44972</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         <v>44974</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>44974</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44988</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26311,7 +26311,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>45013</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45013</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>45020</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>45020</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         <v>45021</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45022</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>45031</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>45041</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>45041</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45041</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45043</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45046</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45046</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45048</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45052</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45054</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45055</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45071</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45077</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45079</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45083</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45099</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45106</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>45109</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>45109</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>45111</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45111</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>45118</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45128</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45132</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45132</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45132</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45132</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45132</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45145</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>45148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>45154</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>45161</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>45161</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>45162</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>45163</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>45163</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>45167</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>45175</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29664,7 +29664,7 @@
       </c>
       <c r="R498" s="2" t="inlineStr"/>
     </row>
-    <row r="499">
+    <row r="499" ht="15" customHeight="1">
       <c r="A499" t="inlineStr">
         <is>
           <t>A 44360-2023</t>
@@ -29674,7 +29674,7 @@
         <v>45188</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29720,6 +29720,120 @@
         <v>0</v>
       </c>
       <c r="R499" s="2" t="inlineStr"/>
+    </row>
+    <row r="500" ht="15" customHeight="1">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>A 44566-2023</t>
+        </is>
+      </c>
+      <c r="B500" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C500" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>NÄSSJÖ</t>
+        </is>
+      </c>
+      <c r="G500" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H500" t="n">
+        <v>0</v>
+      </c>
+      <c r="I500" t="n">
+        <v>0</v>
+      </c>
+      <c r="J500" t="n">
+        <v>0</v>
+      </c>
+      <c r="K500" t="n">
+        <v>0</v>
+      </c>
+      <c r="L500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N500" t="n">
+        <v>0</v>
+      </c>
+      <c r="O500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R500" s="2" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>A 44766-2023</t>
+        </is>
+      </c>
+      <c r="B501" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C501" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>NÄSSJÖ</t>
+        </is>
+      </c>
+      <c r="G501" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H501" t="n">
+        <v>0</v>
+      </c>
+      <c r="I501" t="n">
+        <v>0</v>
+      </c>
+      <c r="J501" t="n">
+        <v>0</v>
+      </c>
+      <c r="K501" t="n">
+        <v>0</v>
+      </c>
+      <c r="L501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N501" t="n">
+        <v>0</v>
+      </c>
+      <c r="O501" t="n">
+        <v>0</v>
+      </c>
+      <c r="P501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q501" t="n">
+        <v>0</v>
+      </c>
+      <c r="R501" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NÄSSJÖ.xlsx
+++ b/Översikt NÄSSJÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y501"/>
+  <dimension ref="A1:Y503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43339</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44027</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44956</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43726</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44179</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45043</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43987</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44209</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>44498</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44537</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44839</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44886</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44928</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45044</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43339</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43340</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43365</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43378</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43390</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43391</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43411</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43414</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43419</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43420</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43420</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43430</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43443</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43450</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43454</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43484</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43486</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43487</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43489</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43490</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43494</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43515</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43515</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43515</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43521</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43521</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43523</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43525</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43528</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43557</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43560</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43562</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43582</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43590</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43599</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43599</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43601</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43620</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43620</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43621</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43633</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43633</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43635</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43636</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43670</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43686</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>43705</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>43711</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>43714</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>43725</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43734</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43734</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43736</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43736</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43740</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43740</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43742</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43748</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43753</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43756</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43760</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43769</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43770</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43773</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43776</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43798</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43798</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43798</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43801</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>43814</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>43816</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>43818</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43833</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43844</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43845</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43845</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43850</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43854</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43858</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43861</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>43861</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43861</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>43866</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>43866</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>43873</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43873</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>43875</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>43875</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43888</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43895</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43900</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43901</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>43913</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>43923</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43943</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43945</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43945</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43957</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>43963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43970</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43970</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43975</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43976</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43991</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43997</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43997</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44011</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44011</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44013</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44025</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44042</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44044</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44046</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44047</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44056</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44056</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44060</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44066</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>44066</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44066</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44078</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44085</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44089</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44091</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44098</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44099</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44099</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44102</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44102</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44102</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44102</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44102</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44102</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44105</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>44105</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44112</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44116</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44119</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44121</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44128</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44132</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44141</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44144</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>44151</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44151</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44155</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>44162</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>44162</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44162</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44162</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44172</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44182</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44200</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44215</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44228</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44231</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44234</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44245</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44246</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44246</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44260</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44264</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44264</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44264</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>44265</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>44277</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44294</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44313</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44315</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>44330</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>44342</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44344</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44344</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44348</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44356</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>44364</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>44369</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44379</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44380</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44383</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44386</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44418</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44427</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44428</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44445</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44452</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44454</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44456</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44459</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44459</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44459</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44459</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44459</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44459</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44459</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44460</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44460</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44462</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44466</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44469</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44481</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44482</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44483</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44502</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44546</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44564</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44568</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44579</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44579</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44585</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44588</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44594</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44594</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44600</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44603</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44608</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44613</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44617</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44650</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44664</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44664</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44665</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44670</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44685</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44685</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>44691</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>44701</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>44701</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44701</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>44721</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>44804</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44804</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44804</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44809</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44812</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44812</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44816</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44818</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44818</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44826</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44826</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44826</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44827</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44827</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44837</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44838</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44858</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44869</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>44869</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44874</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44886</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44897</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44898</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44901</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44902</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44902</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44902</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44928</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>44928</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>44928</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44928</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44939</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44945</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44945</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44946</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44946</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44946</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44946</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44950</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44952</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44956</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44956</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44956</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44965</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>44970</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
         <v>44972</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26026,7 +26026,7 @@
         <v>44972</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         <v>44974</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>44974</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44988</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26311,7 +26311,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>45013</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45013</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>45020</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>45020</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         <v>45021</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45022</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>45031</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>45041</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>45041</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45041</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45043</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45046</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45046</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45048</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45052</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45054</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45055</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45071</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45077</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45079</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45083</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45099</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45106</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>45109</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>45109</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>45111</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45111</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>45118</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45128</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45132</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45132</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45132</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45132</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45132</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45145</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>45148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>45154</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>45161</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>45161</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>45162</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>45163</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>45163</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>45167</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>45175</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29674,7 +29674,7 @@
         <v>45188</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29731,7 +29731,7 @@
         <v>45189</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29778,7 +29778,7 @@
       </c>
       <c r="R500" s="2" t="inlineStr"/>
     </row>
-    <row r="501">
+    <row r="501" ht="15" customHeight="1">
       <c r="A501" t="inlineStr">
         <is>
           <t>A 44766-2023</t>
@@ -29788,7 +29788,7 @@
         <v>45190</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29834,6 +29834,120 @@
         <v>0</v>
       </c>
       <c r="R501" s="2" t="inlineStr"/>
+    </row>
+    <row r="502" ht="15" customHeight="1">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>A 45865-2023</t>
+        </is>
+      </c>
+      <c r="B502" s="1" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C502" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>NÄSSJÖ</t>
+        </is>
+      </c>
+      <c r="G502" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H502" t="n">
+        <v>0</v>
+      </c>
+      <c r="I502" t="n">
+        <v>0</v>
+      </c>
+      <c r="J502" t="n">
+        <v>0</v>
+      </c>
+      <c r="K502" t="n">
+        <v>0</v>
+      </c>
+      <c r="L502" t="n">
+        <v>0</v>
+      </c>
+      <c r="M502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N502" t="n">
+        <v>0</v>
+      </c>
+      <c r="O502" t="n">
+        <v>0</v>
+      </c>
+      <c r="P502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R502" s="2" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>A 45868-2023</t>
+        </is>
+      </c>
+      <c r="B503" s="1" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C503" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>NÄSSJÖ</t>
+        </is>
+      </c>
+      <c r="G503" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H503" t="n">
+        <v>0</v>
+      </c>
+      <c r="I503" t="n">
+        <v>0</v>
+      </c>
+      <c r="J503" t="n">
+        <v>0</v>
+      </c>
+      <c r="K503" t="n">
+        <v>0</v>
+      </c>
+      <c r="L503" t="n">
+        <v>0</v>
+      </c>
+      <c r="M503" t="n">
+        <v>0</v>
+      </c>
+      <c r="N503" t="n">
+        <v>0</v>
+      </c>
+      <c r="O503" t="n">
+        <v>0</v>
+      </c>
+      <c r="P503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q503" t="n">
+        <v>0</v>
+      </c>
+      <c r="R503" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NÄSSJÖ.xlsx
+++ b/Översikt NÄSSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43339</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44027</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44956</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43726</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44179</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45043</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43987</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44209</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>44498</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44537</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44839</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44886</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44928</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45044</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43339</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43340</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43365</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43378</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43390</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43391</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43411</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43414</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43419</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43420</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43420</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43430</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43443</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43450</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43454</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43484</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43486</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43487</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43489</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43490</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43494</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43515</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43515</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43515</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43521</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43521</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43523</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43525</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43528</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43557</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43560</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43562</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43582</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43590</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43599</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43599</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43601</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43620</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43620</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43621</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43633</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43633</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43635</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43636</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43670</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43686</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>43705</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>43711</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>43714</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>43725</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43734</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43734</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43736</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43736</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43740</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43740</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43742</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43748</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43753</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43756</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43760</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43769</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43770</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43773</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43776</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43798</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43798</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43798</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43801</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>43814</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>43816</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>43818</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43833</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43844</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43845</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43845</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43850</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43854</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43858</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43861</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>43861</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43861</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>43866</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>43866</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>43873</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43873</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>43875</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>43875</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43888</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43895</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43900</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43901</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>43913</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>43923</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43943</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43945</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43945</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43957</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>43963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43970</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43970</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43975</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43976</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43991</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43997</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43997</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44011</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44011</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44013</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44025</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44042</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44044</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44046</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44047</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44056</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44056</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44060</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44066</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>44066</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44066</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44078</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44085</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44089</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44091</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44098</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44099</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44099</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44102</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44102</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44102</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44102</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44102</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44102</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44105</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>44105</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44112</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44116</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44119</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44121</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44128</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44132</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44141</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44144</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>44151</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44151</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44155</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>44162</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>44162</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44162</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44162</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44172</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44182</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44200</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44215</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44228</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44231</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44234</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44245</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44246</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44246</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44260</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44264</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44264</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44264</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>44265</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>44277</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44294</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44313</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44315</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>44330</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>44342</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44344</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44344</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44348</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44356</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>44364</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>44369</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44379</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44380</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44383</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44386</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44418</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44427</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44428</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44445</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44452</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44454</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44456</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44459</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44459</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44459</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44459</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44459</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44459</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44459</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44460</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44460</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44462</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44466</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44469</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44481</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44482</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44483</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44502</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44546</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44564</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44568</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44579</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44579</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44585</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44588</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44594</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44594</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44600</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44603</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44608</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44613</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44617</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44650</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44664</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44664</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44665</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44670</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44685</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44685</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>44691</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>44701</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>44701</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44701</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>44721</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>44804</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44804</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44804</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44809</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44812</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44812</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44816</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44818</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44818</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44826</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44826</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44826</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44827</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44827</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44837</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44838</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44858</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44869</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>44869</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44874</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44886</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44897</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44898</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44901</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44902</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44902</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44902</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44928</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>44928</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>44928</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44928</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44939</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44945</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44945</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44946</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44946</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44946</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44946</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44950</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44952</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44956</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44956</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44956</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44965</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>44970</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
         <v>44972</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26026,7 +26026,7 @@
         <v>44972</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         <v>44974</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>44974</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44988</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26311,7 +26311,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>45013</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45013</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>45020</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>45020</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         <v>45021</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45022</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>45031</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>45041</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>45041</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45041</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45043</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45046</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45046</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45048</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45052</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45054</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45055</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45071</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45077</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45079</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45083</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45099</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45106</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>45109</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>45109</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>45111</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45111</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>45118</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45128</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45132</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45132</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45132</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45132</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45132</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45145</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>45148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>45154</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>45161</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>45161</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>45162</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>45163</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>45163</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>45167</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>45175</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29674,7 +29674,7 @@
         <v>45188</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29731,7 +29731,7 @@
         <v>45189</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>45190</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>45195</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>45195</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>

--- a/Översikt NÄSSJÖ.xlsx
+++ b/Översikt NÄSSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43339</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44027</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44956</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43726</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44179</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45043</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43987</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44209</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>44498</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44537</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44839</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44886</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44928</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45044</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43339</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43340</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43365</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43378</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43390</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43391</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43411</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43414</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43419</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43420</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43420</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43430</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43443</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43450</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43454</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43484</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43486</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43487</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43489</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43490</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43494</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43515</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43515</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43515</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43521</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43521</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43523</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43525</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43528</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43557</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43560</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43562</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43582</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43590</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43599</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43599</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43601</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43620</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43620</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43621</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43633</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43633</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43635</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43636</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43670</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43686</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>43705</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>43711</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>43714</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>43725</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43734</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43734</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43736</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43736</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43740</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43740</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43742</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43748</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43753</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43756</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43760</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43769</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43770</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43773</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43776</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43798</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43798</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43798</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43801</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>43814</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>43816</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>43818</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43833</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43844</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43845</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43845</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43850</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43854</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43858</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43861</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>43861</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43861</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>43866</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>43866</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>43873</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43873</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>43875</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>43875</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43888</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43895</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43900</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43901</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>43913</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>43923</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43943</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43945</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43945</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43957</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>43963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43970</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43970</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43975</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43976</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43991</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43997</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43997</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44011</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44011</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44013</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44025</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44042</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44044</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44046</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44047</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44056</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44056</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44060</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44066</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>44066</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44066</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44078</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44085</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44089</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44091</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44098</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44099</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44099</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44102</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44102</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44102</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44102</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44102</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44102</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44105</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>44105</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44112</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44116</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44119</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44121</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44128</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44132</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44141</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44144</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>44151</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44151</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44155</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>44162</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>44162</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44162</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44162</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44172</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44182</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44200</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44215</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44228</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44231</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44234</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44245</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44246</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44246</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44260</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44264</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44264</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44264</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>44265</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>44277</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44294</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44313</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44315</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>44330</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>44342</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44344</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44344</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44348</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44356</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>44364</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>44369</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44379</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44380</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44383</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44386</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44418</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44427</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44428</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44445</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44452</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44454</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44456</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44459</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44459</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44459</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44459</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44459</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44459</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44459</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44460</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44460</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44462</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44466</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44469</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44481</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44482</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44483</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44502</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44546</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44564</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44568</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44579</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44579</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44585</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44588</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44594</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44594</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44600</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44603</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44608</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44613</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44617</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44650</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44664</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44664</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44665</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44670</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44685</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44685</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>44691</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>44701</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>44701</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44701</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>44721</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>44804</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44804</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44804</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44809</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44812</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44812</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44816</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44818</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44818</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44826</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44826</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44826</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44827</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44827</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44837</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44838</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44858</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44869</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>44869</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44874</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44886</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44897</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44898</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44901</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44902</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44902</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44902</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44928</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>44928</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>44928</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44928</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44939</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44945</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44945</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44946</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44946</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44946</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44946</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44950</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44952</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44956</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44956</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44956</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44965</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>44970</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
         <v>44972</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26026,7 +26026,7 @@
         <v>44972</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         <v>44974</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>44974</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44988</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26311,7 +26311,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>45013</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45013</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>45020</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>45020</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         <v>45021</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45022</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>45031</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>45041</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>45041</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45041</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45043</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45046</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45046</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45048</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45052</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45054</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45055</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45071</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45077</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45079</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45083</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45099</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45106</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>45109</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>45109</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>45111</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45111</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>45118</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45128</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45132</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45132</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45132</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45132</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45132</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45145</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>45148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>45154</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>45161</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>45161</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>45162</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>45163</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>45163</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>45167</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>45175</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29674,7 +29674,7 @@
         <v>45188</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29731,7 +29731,7 @@
         <v>45189</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>45190</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>45195</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>45195</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>

--- a/Översikt NÄSSJÖ.xlsx
+++ b/Översikt NÄSSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43339</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44027</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44956</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43726</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44179</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45043</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43987</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44209</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>44498</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44537</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44839</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44886</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44928</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45044</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43339</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43340</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43365</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43378</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43390</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43391</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43411</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43414</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43419</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43420</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43420</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43430</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43443</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43450</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43454</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43484</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43486</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43487</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43489</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43490</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43494</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43515</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43515</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43515</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43521</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43521</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43523</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43525</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43528</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43557</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43560</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43562</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43582</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43590</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43599</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43599</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43601</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43620</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43620</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43621</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43633</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43633</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43635</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43636</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43670</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43686</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>43705</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>43711</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>43714</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>43725</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43734</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43734</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43736</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43736</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43740</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43740</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43742</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43748</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43753</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43756</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43760</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43769</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43770</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43773</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43776</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43798</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43798</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43798</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43801</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>43814</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>43816</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>43818</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43833</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43844</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43845</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43845</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43850</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43854</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43858</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43861</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>43861</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43861</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>43866</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>43866</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>43873</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43873</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>43875</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>43875</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43888</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43895</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43900</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43901</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>43913</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>43923</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43943</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43945</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43945</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43957</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>43963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43970</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43970</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43975</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43976</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43991</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43997</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43997</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44011</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44011</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44013</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44025</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44042</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44044</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44046</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44047</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44056</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44056</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44060</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44066</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>44066</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44066</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44078</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44085</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44089</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44091</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44098</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44099</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44099</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44102</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44102</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44102</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44102</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44102</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44102</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44105</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>44105</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44112</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44116</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44119</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44121</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44128</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44132</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44141</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44144</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>44151</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44151</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44155</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>44162</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>44162</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44162</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44162</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44172</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44182</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44200</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44215</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44228</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44231</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44234</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44245</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44246</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44246</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44260</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44264</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44264</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44264</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>44265</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>44277</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44294</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44313</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44315</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>44330</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>44342</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44344</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44344</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44348</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44356</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>44364</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>44369</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44379</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44380</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44383</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44386</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44418</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44427</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44428</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44445</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44452</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44454</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44456</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44459</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44459</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44459</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44459</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44459</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44459</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44459</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44460</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44460</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44462</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44466</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44469</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44481</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44482</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44483</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44502</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44546</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44564</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44568</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44579</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44579</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44585</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44588</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44594</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44594</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44600</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44603</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44608</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44613</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44617</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44650</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44664</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44664</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44665</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44670</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44685</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44685</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>44691</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>44701</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>44701</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44701</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>44721</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>44804</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44804</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44804</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44809</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44812</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44812</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44816</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44818</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44818</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44826</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44826</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44826</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44827</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44827</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44837</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44838</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44858</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44869</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>44869</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44874</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44886</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44897</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44898</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44901</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44902</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44902</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44902</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44928</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>44928</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>44928</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44928</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44939</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44945</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44945</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44946</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44946</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44946</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44946</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44950</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44952</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44956</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44956</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44956</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44965</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>44970</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
         <v>44972</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26026,7 +26026,7 @@
         <v>44972</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         <v>44974</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>44974</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44988</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26311,7 +26311,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>45013</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45013</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>45020</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>45020</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         <v>45021</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45022</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>45031</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>45041</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>45041</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45041</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45043</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45046</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45046</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45048</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45052</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45054</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45055</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45071</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45077</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45079</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45083</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45099</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45106</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>45109</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>45109</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>45111</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45111</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>45118</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45128</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45132</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45132</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45132</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45132</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45132</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45145</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>45148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>45154</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>45161</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>45161</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>45162</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>45163</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>45163</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>45167</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>45175</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29674,7 +29674,7 @@
         <v>45188</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29731,7 +29731,7 @@
         <v>45189</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>45190</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>45195</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>45195</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>

--- a/Översikt NÄSSJÖ.xlsx
+++ b/Översikt NÄSSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43339</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44027</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44956</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43726</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44179</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45043</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43987</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44209</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>44498</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44537</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44839</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44886</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44928</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45044</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43339</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43340</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43365</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43378</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43390</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43391</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43411</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43414</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43419</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43420</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43420</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43430</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43443</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43450</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43454</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43484</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43486</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43487</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43489</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43490</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43494</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43515</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43515</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43515</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43521</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43521</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43523</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43525</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43528</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43557</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43560</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43562</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43582</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43590</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43599</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43599</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43601</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43620</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43620</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43621</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43633</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43633</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43635</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43636</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43670</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43686</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>43705</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>43711</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>43714</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>43725</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43734</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43734</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43736</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43736</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43740</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43740</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43742</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43748</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43753</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43756</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43760</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43769</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43770</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43773</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43776</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43798</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43798</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43798</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43801</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>43814</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>43816</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>43818</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43833</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43844</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43845</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43845</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43850</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43854</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43858</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43861</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>43861</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43861</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>43866</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>43866</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>43873</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43873</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>43875</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>43875</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43888</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43895</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43900</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43901</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>43913</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>43923</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43943</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43945</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43945</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43957</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>43963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43970</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43970</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43975</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43976</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43991</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43997</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43997</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44011</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44011</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44013</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44025</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44042</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44044</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44046</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44047</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44056</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44056</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44060</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44066</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>44066</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44066</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44078</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44085</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44089</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44091</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44098</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44099</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44099</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44102</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44102</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44102</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44102</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44102</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44102</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44105</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>44105</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44112</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44116</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44119</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44121</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44128</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44132</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44141</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44144</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>44151</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44151</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44155</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>44162</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>44162</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44162</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44162</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44172</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44182</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44200</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44215</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44228</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44231</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44234</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44245</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44246</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44246</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44260</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44264</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44264</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44264</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>44265</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>44277</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44294</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44313</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44315</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>44330</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>44342</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44344</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44344</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44348</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44356</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>44364</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>44369</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44379</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44380</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44383</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44386</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44418</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44427</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44428</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44445</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44452</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44454</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44456</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44459</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44459</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44459</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44459</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44459</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44459</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44459</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44460</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44460</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44462</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44466</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44469</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44481</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44482</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44483</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44502</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44546</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44564</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44568</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44579</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44579</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44585</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44588</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44594</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44594</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44600</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44603</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44608</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44613</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44617</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44650</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44664</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44664</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44665</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44670</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44685</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44685</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>44691</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>44701</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>44701</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44701</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>44721</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>44804</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44804</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44804</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44809</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44812</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44812</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44816</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44818</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44818</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44826</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44826</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44826</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44827</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44827</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44837</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44838</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44858</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44869</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>44869</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44874</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44886</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44897</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44898</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44901</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44902</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44902</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44902</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44928</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>44928</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>44928</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44928</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44939</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44945</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44945</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44946</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44946</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44946</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44946</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44950</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44952</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44956</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44956</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44956</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44965</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>44970</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
         <v>44972</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26026,7 +26026,7 @@
         <v>44972</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         <v>44974</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>44974</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44988</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26311,7 +26311,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>45013</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45013</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>45020</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>45020</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         <v>45021</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45022</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>45031</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>45041</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>45041</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45041</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45043</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45046</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45046</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45048</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45052</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45054</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45055</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45071</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45077</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45079</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45083</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45099</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45106</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>45109</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>45109</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>45111</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45111</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>45118</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45128</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45132</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45132</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45132</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45132</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45132</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45145</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>45148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>45154</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>45161</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>45161</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>45162</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>45163</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>45163</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>45167</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>45175</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29674,7 +29674,7 @@
         <v>45188</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29731,7 +29731,7 @@
         <v>45189</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>45190</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>45195</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>45195</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>

--- a/Översikt NÄSSJÖ.xlsx
+++ b/Översikt NÄSSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43339</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43608</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44027</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44956</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43726</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>44179</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45043</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43363</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>43987</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44209</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>44371</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>44498</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44529</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44537</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44839</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
         <v>44839</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44886</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
         <v>44928</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45044</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45090</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>43333</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>43335</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43339</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>43340</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>43353</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>43355</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>43356</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>43365</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>43375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>43376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>43378</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>43378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>43378</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>43382</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>43390</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>43390</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>43391</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>43398</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43411</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43411</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>43411</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>43411</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>43412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>43414</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43417</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43419</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>43419</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>43420</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>43420</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>43430</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>43443</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>43450</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>43453</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>43454</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>43474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>43474</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>43475</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>43484</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>43486</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>43486</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>43487</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43489</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43490</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43494</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43495</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>43496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>43504</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         <v>43515</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>43515</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>43515</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43521</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43521</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>43523</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43525</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43528</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43529</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43530</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43550</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43550</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43557</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43560</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43562</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43571</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43582</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>43590</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43592</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43599</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43599</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43599</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43601</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43601</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43605</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>43607</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
         <v>43607</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43608</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43612</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43620</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         <v>43620</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>43621</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43633</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43633</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43635</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43636</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43636</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43636</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43670</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43686</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8831,7 +8831,7 @@
         <v>43698</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>43698</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>43703</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         <v>43705</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9059,7 +9059,7 @@
         <v>43711</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>43714</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43720</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9230,7 +9230,7 @@
         <v>43725</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
         <v>43732</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43733</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>43734</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43734</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43736</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9582,7 +9582,7 @@
         <v>43736</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>43740</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9696,7 +9696,7 @@
         <v>43740</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
         <v>43742</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43748</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43752</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43753</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43753</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43756</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43760</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43767</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43769</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43770</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43773</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43776</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43776</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>43798</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>43798</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>43798</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43801</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>43811</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>43814</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>43816</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>43818</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>43833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>43833</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>43833</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>43833</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43833</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>43833</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>43833</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>43840</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>43840</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>43844</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>43845</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>43845</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>43850</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43854</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>43858</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>43861</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>43861</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>43861</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         <v>43866</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>43866</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>43873</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
         <v>43873</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12385,7 +12385,7 @@
         <v>43875</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>43875</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12504,7 +12504,7 @@
         <v>43888</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>43895</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>43900</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>43900</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>43901</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>43901</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>43913</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>43923</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         <v>43943</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>43945</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>43945</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>43957</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>43963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>43963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>43970</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>43970</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>43975</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>43976</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>43991</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43997</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43997</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44011</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44011</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44013</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44025</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44042</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44044</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44046</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44047</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>44056</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44056</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>44060</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>44061</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44063</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>44064</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44066</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>44066</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44066</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14829,7 +14829,7 @@
         <v>44069</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14886,7 +14886,7 @@
         <v>44078</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>44085</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15000,7 +15000,7 @@
         <v>44089</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
         <v>44089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15114,7 +15114,7 @@
         <v>44091</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>44097</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>44098</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>44099</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44099</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44102</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44102</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44102</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44102</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>44102</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>44102</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>44105</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>44105</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>44106</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>44112</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44116</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>44119</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44121</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44123</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44128</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44132</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44141</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44144</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>44151</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>44151</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>44155</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>44162</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>44162</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>44162</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44162</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44162</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44172</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44173</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44182</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44200</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17119,7 +17119,7 @@
         <v>44215</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44221</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44228</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44229</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44231</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>44234</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17461,7 +17461,7 @@
         <v>44235</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>44239</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>44239</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44245</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44246</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>44246</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>44246</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>44260</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>44264</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44264</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44264</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>44265</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>44277</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44294</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>44298</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>44298</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44313</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18430,7 +18430,7 @@
         <v>44314</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44315</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>44330</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>44342</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>44344</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44344</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44348</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44356</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>44361</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>44364</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>44369</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>44371</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19119,7 +19119,7 @@
         <v>44375</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>44378</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>44379</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19290,7 +19290,7 @@
         <v>44380</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19347,7 +19347,7 @@
         <v>44383</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19404,7 +19404,7 @@
         <v>44386</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>44389</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44407</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44410</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44418</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44427</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44428</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>44428</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>44445</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>44452</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>44454</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>44456</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>44459</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>44459</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>44459</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44459</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44459</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44459</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44459</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44460</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44460</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44462</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44463</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44466</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44469</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44481</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44482</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44483</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44502</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44519</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44546</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44564</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>44568</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>44573</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>44579</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>44579</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44585</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44588</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44594</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44594</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44600</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44603</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21860,7 +21860,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21917,7 +21917,7 @@
         <v>44608</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21974,7 +21974,7 @@
         <v>44609</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44613</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
         <v>44617</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>44644</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>44650</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22259,7 +22259,7 @@
         <v>44659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22316,7 +22316,7 @@
         <v>44659</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22373,7 +22373,7 @@
         <v>44664</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44664</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>44665</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22544,7 +22544,7 @@
         <v>44670</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>44685</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>44685</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>44691</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>44701</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>44701</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44701</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>44721</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>44804</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44804</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44804</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44809</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44812</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23285,7 +23285,7 @@
         <v>44812</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
         <v>44816</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
         <v>44818</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23456,7 +23456,7 @@
         <v>44818</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44826</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44826</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23627,7 +23627,7 @@
         <v>44826</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23684,7 +23684,7 @@
         <v>44827</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23741,7 +23741,7 @@
         <v>44827</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44837</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44838</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23974,7 +23974,7 @@
         <v>44858</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44869</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>44869</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>44869</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24316,7 +24316,7 @@
         <v>44874</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>44880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24430,7 +24430,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24487,7 +24487,7 @@
         <v>44886</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24544,7 +24544,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24601,7 +24601,7 @@
         <v>44897</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
         <v>44898</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         <v>44901</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24772,7 +24772,7 @@
         <v>44902</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24829,7 +24829,7 @@
         <v>44902</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24886,7 +24886,7 @@
         <v>44902</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24943,7 +24943,7 @@
         <v>44928</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
         <v>44928</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>44928</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44928</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44939</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44945</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44945</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44946</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44946</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44946</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25513,7 +25513,7 @@
         <v>44946</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25570,7 +25570,7 @@
         <v>44950</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>44952</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>44956</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44956</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>44956</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>44965</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         <v>44970</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
         <v>44972</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26026,7 +26026,7 @@
         <v>44972</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         <v>44974</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>44974</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26197,7 +26197,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26254,7 +26254,7 @@
         <v>44988</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26311,7 +26311,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26368,7 +26368,7 @@
         <v>45013</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45013</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26482,7 +26482,7 @@
         <v>45020</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>45020</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         <v>45021</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>45022</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26710,7 +26710,7 @@
         <v>45031</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>45041</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>45041</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>45041</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45043</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45046</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45046</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45048</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45052</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45054</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45055</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45062</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45062</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45069</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45071</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45077</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
         <v>45079</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27679,7 +27679,7 @@
         <v>45083</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27736,7 +27736,7 @@
         <v>45083</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>45096</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27850,7 +27850,7 @@
         <v>45099</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45106</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27964,7 +27964,7 @@
         <v>45109</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28021,7 +28021,7 @@
         <v>45109</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>45111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>45111</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>45111</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>45118</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>45118</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>45128</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28477,7 +28477,7 @@
         <v>45132</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28534,7 +28534,7 @@
         <v>45132</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28591,7 +28591,7 @@
         <v>45132</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28648,7 +28648,7 @@
         <v>45132</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28705,7 +28705,7 @@
         <v>45132</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28762,7 +28762,7 @@
         <v>45145</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28876,7 +28876,7 @@
         <v>45148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28933,7 +28933,7 @@
         <v>45154</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28990,7 +28990,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
         <v>45161</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>45161</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29161,7 +29161,7 @@
         <v>45162</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29389,7 +29389,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29446,7 +29446,7 @@
         <v>45163</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>45163</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>45167</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>45175</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29674,7 +29674,7 @@
         <v>45188</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29731,7 +29731,7 @@
         <v>45189</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>45190</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>45195</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>45195</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
